--- a/Neuroinformatics_Laba2/plant_dataset_fantastic.xlsx
+++ b/Neuroinformatics_Laba2/plant_dataset_fantastic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\ZeroX464\Neuroinformatics_Laba2\Neuroinformatics_Laba2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TEST\Laba1\Neuroinformatics_Laba2\Neuroinformatics_Laba2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC5BA2C-E72F-421E-9F88-FC9C4AFE1807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFC4934-BD8A-4AAB-8240-38154B95574E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="1245" windowWidth="11475" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,47 +22,47 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>origin_mainland</t>
-  </si>
-  <si>
-    <t>average_height</t>
-  </si>
-  <si>
-    <t>average_width</t>
-  </si>
-  <si>
-    <t>growth_rate</t>
-  </si>
-  <si>
-    <t>watering_needs</t>
-  </si>
-  <si>
-    <t>sunlight_requirements</t>
-  </si>
-  <si>
-    <t>soil_requirements</t>
-  </si>
-  <si>
-    <t>blooming_season</t>
+    <t>высота</t>
+  </si>
+  <si>
+    <t>ширина</t>
+  </si>
+  <si>
+    <t>скорость роста</t>
+  </si>
+  <si>
+    <t>требования к поливу</t>
+  </si>
+  <si>
+    <t>требования к освещённости</t>
+  </si>
+  <si>
+    <t>требования к температуре</t>
+  </si>
+  <si>
+    <t>требования к почве</t>
+  </si>
+  <si>
+    <t>сезон цветения</t>
   </si>
   <si>
     <t>plant_class</t>
   </si>
   <si>
-    <t>FantasticPlantClass2</t>
-  </si>
-  <si>
-    <t>Flowering Shrubs</t>
+    <t>Луковичные цветы</t>
   </si>
   <si>
     <t>Фиалка</t>
+  </si>
+  <si>
+    <t>Фантастическое растение</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +74,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,11 +118,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -418,22 +426,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -467,92 +473,96 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5</v>
+        <v>32.226498046156543</v>
       </c>
       <c r="B2">
-        <v>229.41584187705399</v>
+        <v>8.2276509535823941</v>
       </c>
       <c r="C2">
-        <v>203.20479429823999</v>
+        <v>1.4533993134068921</v>
       </c>
       <c r="D2">
-        <v>0.88806103142391302</v>
+        <v>4.960795850739915</v>
       </c>
       <c r="E2">
-        <v>3.6823612085209989</v>
+        <v>6.1626748965635159</v>
       </c>
       <c r="F2">
-        <v>6.8798163899211602</v>
+        <v>16.76546092633647</v>
       </c>
       <c r="G2">
-        <v>4.4935492414600002</v>
+        <v>5.0229838359217922</v>
       </c>
       <c r="H2">
-        <v>5.5840758013538796</v>
+        <v>3.5777597377514918</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-1</v>
+        <v>10000</v>
       </c>
       <c r="B3">
-        <v>1193.5043270000001</v>
+        <v>10000</v>
       </c>
       <c r="C3">
-        <v>687.93523059999995</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>2.9251408969999999</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>13.692172599999999</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>30.93669985</v>
+        <v>70</v>
       </c>
       <c r="G3">
-        <v>48.558702240000002</v>
+        <v>20</v>
       </c>
       <c r="H3">
-        <v>43.461090660000004</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>1.5</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
         <v>20</v>
-      </c>
-      <c r="C4">
-        <v>17</v>
-      </c>
-      <c r="D4">
-        <v>0.5</v>
-      </c>
-      <c r="E4">
-        <v>2.5</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
       </c>
       <c r="G4">
         <v>5</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>